--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\DemoS_004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57217FA0-2E1B-4C17-8F32-6EFF7AC03A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC5065-9FAA-474B-82EF-92A12B525AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="3048" windowWidth="17280" windowHeight="8880" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -14756,8 +14756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15121,11 +15121,11 @@
         <v>0.95</v>
       </c>
       <c r="H12" s="113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="114">
         <f>H12*0.02</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="113">
         <v>20</v>
@@ -20551,7 +20551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\DemoS_004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC5065-9FAA-474B-82EF-92A12B525AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A4176-3684-423A-B000-7631F4727120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="901" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -14756,8 +14756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15121,11 +15121,11 @@
         <v>0.95</v>
       </c>
       <c r="H12" s="113">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" s="114">
         <f>H12*0.02</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J12" s="113">
         <v>20</v>
